--- a/Documentation/BioRubeBot_SprintBackLog_Su16.xlsx
+++ b/Documentation/BioRubeBot_SprintBackLog_Su16.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14910" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Task</t>
   </si>
@@ -81,6 +76,12 @@
   </si>
   <si>
     <t>Add game pieces to to be able to move onto the cell</t>
+  </si>
+  <si>
+    <t>Add drag/drop feature for game pieces on the cell</t>
+  </si>
+  <si>
+    <t>Allow game pieces to interact when the play button is hit</t>
   </si>
 </sst>
 </file>
@@ -336,14 +337,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -632,7 +633,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -643,7 +644,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:A29"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,7 +745,7 @@
       <c r="B15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -752,31 +753,31 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="20"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="20"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="16"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="6"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="7"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -795,11 +796,15 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
-      <c r="B26" s="11"/>
+      <c r="B26" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
-      <c r="B27" s="11"/>
+      <c r="B27" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
